--- a/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_ftnref3" localSheetId="0">'Document Type'!$A$3</definedName>
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -295,13 +295,70 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.peppol.eu:transaction:biitrns111:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>PEPPOL Invoice Response V1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Catalogue-2::Catalogue##urn:fdc:peppol.eu:poacc:trns:catalogue:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:poacc:trns:catalogue_response:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:poacc:trns:invoice_response:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Catalogue-2::Catalogue##urn:fdc:peppol.eu:poacc:trns:punch_out:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:DespatchAdvice-2::DespatchAdvice##urn:fdc:peppol.eu:poacc:trns:despatch_advice:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_agreement:3::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:poacc:trns:mlr:3::2.1</t>
+  </si>
+  <si>
+    <t>PEPPOL Catalogue transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Catalogue Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Order transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Invoice Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Punch Out transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Order Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Despatch Advice transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Order Agreement transaction 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL Message Level Response transaction 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +454,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -466,11 +523,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -795,27 +847,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="129.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.26953125" style="4" customWidth="1"/>
     <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="14.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -835,7 +887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -877,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -919,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -940,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -961,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="29">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1042,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1081,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1102,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1180,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="29">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1198,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="29">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1216,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -1234,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="29">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="29">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -1270,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1288,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="29">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="43.5">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="29">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="29">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="29">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1386,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="29">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="29">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
@@ -1440,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="43.5">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -1476,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="43.5">
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
@@ -1494,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="29">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -1512,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29">
       <c r="A37" s="10" t="s">
         <v>61</v>
       </c>
@@ -1530,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -1548,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29">
       <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
@@ -1566,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29">
       <c r="A40" s="10" t="s">
         <v>62</v>
       </c>
@@ -1584,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29">
       <c r="A41" s="10" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29">
       <c r="A42" s="10" t="s">
         <v>63</v>
       </c>
@@ -1620,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -1638,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29">
       <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
@@ -1656,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -1674,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -1692,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>81</v>
       </c>
@@ -1710,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>82</v>
       </c>
@@ -1728,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
@@ -1746,7 +1798,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>73</v>
       </c>
@@ -1757,6 +1812,168 @@
         <v>4</v>
       </c>
       <c r="E50" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
+      <c r="E51" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="10">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="10">
+        <v>4</v>
+      </c>
+      <c r="E55" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="10">
+        <v>4</v>
+      </c>
+      <c r="E56" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="10">
+        <v>4</v>
+      </c>
+      <c r="E58" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29">
+      <c r="A59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>

--- a/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="113">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>PEPPOL Message Level Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>SI-UBL 2.0 Invoice</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0::2.1</t>
+  </si>
+  <si>
+    <t>SI-UBL 2.0 CreditNote</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0::2.1</t>
   </si>
 </sst>
 </file>
@@ -848,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -1978,10 +1990,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4</v>
+      </c>
+      <c r="E60" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="10">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F31"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D14:D16" twoDigitTextYear="1"/>
   </ignoredErrors>

--- a/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Document types v4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0::2.1</t>
+  </si>
+  <si>
+    <t>SG PEPPOL BIS Billing 3.0 Invoice</t>
+  </si>
+  <si>
+    <t>SG PEPPOL BIS Billing 3.0 Credit Note</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::CreditNote##urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:billing:international:sg:3.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:billing:international:sg:3.0::2.1</t>
   </si>
 </sst>
 </file>
@@ -860,11 +872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -2026,6 +2038,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:5" ht="29">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4</v>
+      </c>
+      <c r="E62" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29">
+      <c r="A63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="10">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F31"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
